--- a/medicine/Psychotrope/Degré_Plato/Degré_Plato.xlsx
+++ b/medicine/Psychotrope/Degré_Plato/Degré_Plato.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Degr%C3%A9_Plato</t>
+          <t>Degré_Plato</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le degré Plato (noté °P) est l'unité d'une grandeur sans dimension permettant d'exprimer le pourcentage en masse d'extrait sec du moût avant fermentation. Il est utilisé essentiellement dans le milieu du brassage de la bière, et donne une valeur plus précise que le degré Balling[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le degré Plato (noté °P) est l'unité d'une grandeur sans dimension permettant d'exprimer le pourcentage en masse d'extrait sec du moût avant fermentation. Il est utilisé essentiellement dans le milieu du brassage de la bière, et donne une valeur plus précise que le degré Balling.
 Les bières courantes sont brassées à partir d'une densité primitive de moût de l'ordre de 11 à 13 °P.
 Cette unité a été établie en 1900 d'après le nom du Dr Fritz Plato, un chimiste allemand.
 </t>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Degr%C3%A9_Plato</t>
+          <t>Degré_Plato</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Aspect technique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La quantité de sucre comprise initialement dans le moût détermine la quantité d'alcool et de gaz dans la bière produite. Le taux d'alcool final vaut en général un peu plus du tiers du degré Plato.
 1 °P correspond à 1 g de matière sèche soluble (essentiellement le sucre) pour 100 g de moût.
